--- a/Validation/accuracy_file.xlsx
+++ b/Validation/accuracy_file.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishno Dey\Documents\Linguistic\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0E66B4C1-A507-479B-A6FF-052876876BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3520FD-10A5-4FCB-8AF6-4F5E9B60554E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy_file" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>P</t>
   </si>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,12 +580,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -941,7 +940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1450,7 +1449,7 @@
         <v>194</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:H12" si="7">SUM(C2:C11)</f>
+        <f t="shared" ref="C12:G12" si="7">SUM(C2:C11)</f>
         <v>716</v>
       </c>
       <c r="D12">
@@ -1496,11 +1495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,34 +1556,34 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <f>B2-D2</f>
+        <f t="shared" ref="E2:E11" si="0">B2-D2</f>
         <v>9</v>
       </c>
       <c r="F2">
         <v>57</v>
       </c>
       <c r="G2">
-        <f>C2-F2</f>
+        <f t="shared" ref="G2:G11" si="1">C2-F2</f>
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <f>(D2+F2)/91</f>
+        <f t="shared" ref="H2:H11" si="2">(D2+F2)/91</f>
         <v>0.89010989010989006</v>
       </c>
       <c r="I2" s="3">
-        <f>D2/(D2+E2)</f>
+        <f t="shared" ref="I2:I11" si="3">D2/(D2+E2)</f>
         <v>0.72727272727272729</v>
       </c>
       <c r="J2" s="3">
-        <f>D2/(D2+G2)</f>
+        <f t="shared" ref="J2:J11" si="4">D2/(D2+G2)</f>
         <v>0.96</v>
       </c>
       <c r="K2" s="3">
-        <f>(2*H2*I2)/(H2+I2)</f>
+        <f t="shared" ref="K2:K11" si="5">(2*H2*I2)/(H2+I2)</f>
         <v>0.80049413218035825</v>
       </c>
-      <c r="L2" s="4">
-        <f>((D2*F2)-(E2*G2))/(SQRT((D2+E2)*(D2+G2)*(F2+E2)*(F2+G2)))</f>
+      <c r="L2">
+        <f t="shared" ref="L2:L11" si="6">((D2*F2)-(E2*G2))/(SQRT((D2+E2)*(D2+G2)*(F2+E2)*(F2+G2)))</f>
         <v>0.76472716540185903</v>
       </c>
     </row>
@@ -1602,34 +1601,34 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>B3-D3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F3">
         <v>68</v>
       </c>
       <c r="G3">
-        <f>C3-F3</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H3" s="2">
-        <f>(D3+F3)/91</f>
+        <f t="shared" si="2"/>
         <v>0.75824175824175821</v>
       </c>
       <c r="I3" s="3">
-        <f>D3/(D3+E3)</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J3" s="3">
-        <f>D3/(D3+G3)</f>
+        <f t="shared" si="4"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="K3" s="3">
-        <f>(2*H3*I3)/(H3+I3)</f>
+        <f t="shared" si="5"/>
         <v>0.4630872483221477</v>
       </c>
-      <c r="L3" s="4">
-        <f>((D3*F3)-(E3*G3))/(SQRT((D3+E3)*(D3+G3)*(F3+E3)*(F3+G3)))</f>
+      <c r="L3">
+        <f t="shared" si="6"/>
         <v>4.4946657497549468E-2</v>
       </c>
     </row>
@@ -1647,34 +1646,34 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <f>B4-D4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F4">
         <v>72</v>
       </c>
       <c r="G4">
-        <f>C4-F4</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H4" s="2">
-        <f>(D4+F4)/91</f>
+        <f t="shared" si="2"/>
         <v>0.94505494505494503</v>
       </c>
       <c r="I4" s="3">
-        <f>D4/(D4+E4)</f>
+        <f t="shared" si="3"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="J4" s="3">
-        <f>D4/(D4+G4)</f>
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
       <c r="K4" s="3">
-        <f>(2*H4*I4)/(H4+I4)</f>
+        <f t="shared" si="5"/>
         <v>0.88011695906432741</v>
       </c>
-      <c r="L4" s="4">
-        <f>((D4*F4)-(E4*G4))/(SQRT((D4+E4)*(D4+G4)*(F4+E4)*(F4+G4)))</f>
+      <c r="L4">
+        <f t="shared" si="6"/>
         <v>0.81552405927474758</v>
       </c>
     </row>
@@ -1692,34 +1691,34 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f>B5-D5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F5">
         <v>67</v>
       </c>
       <c r="G5">
-        <f>C5-F5</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H5" s="2">
-        <f>(D5+F5)/91</f>
+        <f t="shared" si="2"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="I5" s="3">
-        <f>D5/(D5+E5)</f>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="J5" s="3">
-        <f>D5/(D5+G5)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="K5" s="3">
-        <f>(2*H5*I5)/(H5+I5)</f>
+        <f t="shared" si="5"/>
         <v>0.77464788732394363</v>
       </c>
-      <c r="L5" s="4">
-        <f>((D5*F5)-(E5*G5))/(SQRT((D5+E5)*(D5+G5)*(F5+E5)*(F5+G5)))</f>
+      <c r="L5">
+        <f t="shared" si="6"/>
         <v>0.50919836071081004</v>
       </c>
     </row>
@@ -1737,34 +1736,34 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>B6-D6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F6">
         <v>71</v>
       </c>
       <c r="G6">
-        <f>C6-F6</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H6" s="2">
-        <f>(D6+F6)/91</f>
+        <f t="shared" si="2"/>
         <v>0.79120879120879117</v>
       </c>
       <c r="I6" s="3">
-        <f>D6/(D6+E6)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="J6" s="3">
-        <f>D6/(D6+G6)</f>
+        <f t="shared" si="4"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="K6" s="3">
-        <f>(2*H6*I6)/(H6+I6)</f>
+        <f t="shared" si="5"/>
         <v>0.37994722955145122</v>
       </c>
-      <c r="L6" s="4">
-        <f>((D6*F6)-(E6*G6))/(SQRT((D6+E6)*(D6+G6)*(F6+E6)*(F6+G6)))</f>
+      <c r="L6">
+        <f t="shared" si="6"/>
         <v>3.4761450773518617E-2</v>
       </c>
     </row>
@@ -1782,34 +1781,34 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>B7-D7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F7">
         <v>60</v>
       </c>
       <c r="G7">
-        <f>C7-F7</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="H7" s="2">
-        <f>(D7+F7)/91</f>
+        <f t="shared" si="2"/>
         <v>0.67032967032967028</v>
       </c>
       <c r="I7" s="3">
-        <f>D7/(D7+E7)</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J7" s="3">
-        <f>D7/(D7+G7)</f>
+        <f t="shared" si="4"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="K7" s="3">
-        <f>(2*H7*I7)/(H7+I7)</f>
+        <f t="shared" si="5"/>
         <v>0.4452554744525547</v>
       </c>
-      <c r="L7" s="4">
-        <f>((D7*F7)-(E7*G7))/(SQRT((D7+E7)*(D7+G7)*(F7+E7)*(F7+G7)))</f>
+      <c r="L7">
+        <f t="shared" si="6"/>
         <v>5.8058148810254629E-3</v>
       </c>
     </row>
@@ -1827,34 +1826,34 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>B8-D8</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F8">
         <v>76</v>
       </c>
       <c r="G8">
-        <f>C8-F8</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H8" s="2">
-        <f>(D8+F8)/91</f>
+        <f t="shared" si="2"/>
         <v>0.8351648351648352</v>
       </c>
       <c r="I8" s="3">
-        <f>D8/(D8+E8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f>D8/(D8+G8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f>(2*H8*I8)/(H8+I8)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L8" s="4">
-        <f>((D8*F8)-(E8*G8))/(SQRT((D8+E8)*(D8+G8)*(F8+E8)*(F8+G8)))</f>
+      <c r="L8">
+        <f t="shared" si="6"/>
         <v>-7.1960863932137506E-2</v>
       </c>
     </row>
@@ -1872,34 +1871,34 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>B9-D9</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F9">
         <v>78</v>
       </c>
       <c r="G9">
-        <f>C9-F9</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H9" s="2">
-        <f>(D9+F9)/91</f>
+        <f t="shared" si="2"/>
         <v>0.89010989010989006</v>
       </c>
       <c r="I9" s="3">
-        <f>D9/(D9+E9)</f>
+        <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
       <c r="J9" s="3">
-        <f>D9/(D9+G9)</f>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="K9" s="3">
-        <f>(2*H9*I9)/(H9+I9)</f>
+        <f t="shared" si="5"/>
         <v>0.52768729641693812</v>
       </c>
-      <c r="L9" s="4">
-        <f>((D9*F9)-(E9*G9))/(SQRT((D9+E9)*(D9+G9)*(F9+E9)*(F9+G9)))</f>
+      <c r="L9">
+        <f t="shared" si="6"/>
         <v>0.31475903614457829</v>
       </c>
     </row>
@@ -1917,34 +1916,34 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <f>B10-D10</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F10">
         <v>58</v>
       </c>
       <c r="G10">
-        <f>C10-F10</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H10" s="2">
-        <f>(D10+F10)/91</f>
+        <f t="shared" si="2"/>
         <v>0.70329670329670335</v>
       </c>
       <c r="I10" s="3">
-        <f>D10/(D10+E10)</f>
+        <f t="shared" si="3"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="J10" s="3">
-        <f>D10/(D10+G10)</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="K10" s="3">
-        <f>(2*H10*I10)/(H10+I10)</f>
+        <f t="shared" si="5"/>
         <v>0.33773087071240104</v>
       </c>
-      <c r="L10" s="4">
-        <f>((D10*F10)-(E10*G10))/(SQRT((D10+E10)*(D10+G10)*(F10+E10)*(F10+G10)))</f>
+      <c r="L10">
+        <f t="shared" si="6"/>
         <v>0.17345105139276201</v>
       </c>
     </row>
@@ -1962,34 +1961,34 @@
         <v>73</v>
       </c>
       <c r="E11">
-        <f>B11-D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11">
         <v>17</v>
       </c>
       <c r="G11">
-        <f>C11-F11</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <f>(D11+F11)/91</f>
+        <f t="shared" si="2"/>
         <v>0.98901098901098905</v>
       </c>
       <c r="I11" s="3">
-        <f>D11/(D11+E11)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <f>D11/(D11+G11)</f>
+        <f t="shared" si="4"/>
         <v>0.98648648648648651</v>
       </c>
       <c r="K11" s="3">
-        <f>(2*H11*I11)/(H11+I11)</f>
+        <f t="shared" si="5"/>
         <v>0.99447513812154698</v>
       </c>
-      <c r="L11" s="4">
-        <f>((D11*F11)-(E11*G11))/(SQRT((D11+E11)*(D11+G11)*(F11+E11)*(F11+G11)))</f>
+      <c r="L11">
+        <f t="shared" si="6"/>
         <v>0.96523659362960423</v>
       </c>
     </row>
@@ -2002,23 +2001,23 @@
         <v>194</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:G12" si="0">SUM(C2:C11)</f>
+        <f t="shared" ref="C12:G12" si="7">SUM(C2:C11)</f>
         <v>716</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>624</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="H12" s="3">
@@ -2026,19 +2025,19 @@
         <v>0.8318681318681318</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" ref="I3:I12" si="1">D12/(D12+E12)</f>
+        <f t="shared" ref="I12" si="8">D12/(D12+E12)</f>
         <v>0.68556701030927836</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" ref="J3:J12" si="2">D12/(D12+G12)</f>
+        <f t="shared" ref="J12" si="9">D12/(D12+G12)</f>
         <v>0.59111111111111114</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" ref="K3:L12" si="3">(2*H12*I12)/(H12+I12)</f>
+        <f t="shared" ref="K12:L12" si="10">(2*H12*I12)/(H12+I12)</f>
         <v>0.75166487487308131</v>
       </c>
-      <c r="L12" s="4">
-        <f t="shared" si="3"/>
+      <c r="L12">
+        <f t="shared" si="10"/>
         <v>0.63484486873508361</v>
       </c>
     </row>
